--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_6/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_6/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.461</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.156</v>
+        <v>16.093</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.778</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.268</v>
+        <v>15.319</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.762</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.908</v>
+        <v>4.385</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7.353904883299084</v>
+        <v>8.807937777683534</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>17.82457928726007</v>
+        <v>10.03415544753108</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>24.13079623238193</v>
+        <v>15.87962232586977</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.901769393848296</v>
+        <v>-0.5446494984474199</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>21.66056586002302</v>
+        <v>13.34659251395076</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>25.72383686180213</v>
+        <v>14.83889784269819</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5.42322714607089</v>
+        <v>3.274493624855012</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>35.2848340114619</v>
+        <v>22.40952010733236</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>41.18269746723827</v>
+        <v>24.93768301099776</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>31.86151359923182</v>
+        <v>20.11358799553264</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>38.29394282538055</v>
+        <v>24.44997856160492</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>42.66635882843029</v>
+        <v>28.50311238441997</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>10.64841646072797</v>
+        <v>6.606119858840081</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>25.50671885734141</v>
+        <v>14.17115435284287</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>38.09210509341504</v>
+        <v>17.78726238546852</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13.00202200940895</v>
+        <v>11.04377572179739</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>30.54355589152213</v>
+        <v>26.17336703653676</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>40.13945136438118</v>
+        <v>40.05515560368762</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>7.126679514121392</v>
+        <v>1.487624926821489</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>24.01365181209857</v>
+        <v>14.29028109882139</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>37.0365478868299</v>
+        <v>27.64581167450108</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>7.589715295252692</v>
+        <v>2.858769319474941</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>37.64256464499213</v>
+        <v>24.8264319194245</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>53.1624578736191</v>
+        <v>50.65313211151887</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>36.88173212808397</v>
+        <v>29.47238787397754</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>48.15542850130216</v>
+        <v>50.95274667802464</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>60.85316581155804</v>
+        <v>68.57213672026882</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>12.91900351611495</v>
+        <v>5.482969149530224</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>44.76284072579988</v>
+        <v>39.60713228731098</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>57.01907275549149</v>
+        <v>55.99472467999808</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>18.52555659382376</v>
+        <v>13.54565550833458</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>39.33358994270772</v>
+        <v>33.0556303475727</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>50.06558012395156</v>
+        <v>42.77032054212468</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>7.78734364035512</v>
+        <v>-0.1228672334332614</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>34.23044030263739</v>
+        <v>22.52663944833456</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>44.01127443516164</v>
+        <v>32.97890372559154</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>11.24978660897977</v>
+        <v>2.740017558722293</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>48.11596944445604</v>
+        <v>37.20858071986131</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>68.52663180039148</v>
+        <v>52.88384565438371</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>56.07922068127476</v>
+        <v>51.74156943879503</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>71.22977691510081</v>
+        <v>70.62124118262406</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>84.64552307199608</v>
+        <v>76.76795523289215</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>22.12325007804868</v>
+        <v>13.63538088664795</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>57.23918077552361</v>
+        <v>53.54227952502639</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>73.00510250436322</v>
+        <v>60.10908734725032</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>16.09953656171153</v>
+        <v>6.341399277638146</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>34.24873862050563</v>
+        <v>31.55470146572316</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>43.77105210351229</v>
+        <v>40.05076268262329</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>15.0936371932335</v>
+        <v>3.908230369754925</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>44.87431000547654</v>
+        <v>39.85093609596262</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>50.13702343139168</v>
+        <v>42.25784496229137</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>22.13032182720166</v>
+        <v>6.743565256320416</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>63.25076942303366</v>
+        <v>62.85955763144804</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>69.15646157927119</v>
+        <v>68.44904639510057</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>57.70967900600136</v>
+        <v>56.00962145528653</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>65.29300073351885</v>
+        <v>66.4749917816829</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>68.99918186680954</v>
+        <v>60.58343768830997</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>20.44153745326951</v>
+        <v>6.557703802156396</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>50.01268026304306</v>
+        <v>45.65502790667892</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>58.37133918925358</v>
+        <v>53.79191095509624</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>13.11814284581742</v>
+        <v>7.974217912779991</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>35.84129631701992</v>
+        <v>33.80858442302993</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>45.05734345044727</v>
+        <v>39.7490949574699</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>8.586365714549132</v>
+        <v>0.3355114018447409</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>31.82602369107074</v>
+        <v>22.19203894500027</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>43.25859430224714</v>
+        <v>33.65361588746369</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>12.75119636053598</v>
+        <v>1.327626991801974</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>51.47045066437128</v>
+        <v>40.93676440143344</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>62.74205282551162</v>
+        <v>56.38250524120271</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>47.30154753838102</v>
+        <v>46.28568986540382</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>58.73944368212678</v>
+        <v>62.40139868333097</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>69.23090133725267</v>
+        <v>69.96459838570752</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>14.41503953799462</v>
+        <v>5.427647172695536</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>54.28852470776298</v>
+        <v>51.8505339244959</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>61.43583347265565</v>
+        <v>58.93974947210495</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>16.72246153643199</v>
+        <v>9.942184793873173</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>43.39409157504869</v>
+        <v>36.85066885358519</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>53.68634782894402</v>
+        <v>47.7368974479976</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>8.793169646777358</v>
+        <v>0.5019183123315436</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>41.28046687929675</v>
+        <v>30.65309347862528</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>50.60865459294205</v>
+        <v>40.54261354061252</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>16.57339126634778</v>
+        <v>4.473306397660156</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>63.09464071103584</v>
+        <v>54.61002570272443</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>80.09666219783392</v>
+        <v>76.61116473710075</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>65.23083290059355</v>
+        <v>63.11232289759919</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>81.21874300783841</v>
+        <v>83.91251106962039</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>93.14611539803451</v>
+        <v>86.75565170751271</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>22.27655613698543</v>
+        <v>5.645641181127669</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>68.42271973995538</v>
+        <v>64.00367183137919</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>76.63714250152175</v>
+        <v>70.98020035679241</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>16.64570867399178</v>
+        <v>14.84485396918747</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>32.39446803113478</v>
+        <v>31.85359138444699</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>39.27937709075825</v>
+        <v>36.41482828760074</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>10.57401360704165</v>
+        <v>1.095005402725331</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>36.99879687393305</v>
+        <v>32.74264520263782</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>40.76275934918855</v>
+        <v>33.70570641333207</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>18.26499856714859</v>
+        <v>5.542315199765497</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>56.44505878899361</v>
+        <v>59.98381927579606</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>59.81585997055264</v>
+        <v>57.32508463216161</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>49.69525013422882</v>
+        <v>45.27677377348675</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>57.25019453241776</v>
+        <v>55.2793694244483</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>60.13744655787588</v>
+        <v>52.36779670828234</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>17.64379776013596</v>
+        <v>12.28170816088214</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>42.15827809965835</v>
+        <v>36.11319567423622</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>49.56449405081066</v>
+        <v>39.72089163336661</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>21.04114744116249</v>
+        <v>18.24867503386767</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>43.04464008724508</v>
+        <v>41.79960167935046</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>49.43957694939208</v>
+        <v>43.09212163792838</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>13.35949126096154</v>
+        <v>3.556197436168112</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>36.80357414948815</v>
+        <v>31.10125269358054</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>46.04126049768533</v>
+        <v>36.17166438218414</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>19.06226597957093</v>
+        <v>4.8218437969436</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>57.4127488976187</v>
+        <v>53.88809032856915</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>66.22467134667784</v>
+        <v>60.9960511701516</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>52.33526448899888</v>
+        <v>53.99602733618621</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>62.50284513334923</v>
+        <v>66.41315390097506</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>71.70502443758124</v>
+        <v>69.51022815746933</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>21.61908247546999</v>
+        <v>18.39396011085238</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>57.34739103335646</v>
+        <v>53.85335340893622</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>65.17188681799534</v>
+        <v>57.57662772502839</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>23.96690003892847</v>
+        <v>18.31685747883032</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>49.67360888167744</v>
+        <v>42.65779914630514</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>57.30527401887284</v>
+        <v>48.21863545532474</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>13.32360211170095</v>
+        <v>1.455046905657028</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>45.52787145074061</v>
+        <v>36.02034812261623</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>52.70964635618702</v>
+        <v>39.5772519411523</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>21.82829728035176</v>
+        <v>4.196947297775885</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>67.4950812187388</v>
+        <v>63.58011190809102</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>82.3155364024792</v>
+        <v>74.86216065991033</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>68.97896233188759</v>
+        <v>69.70291383836857</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>84.33305225960156</v>
+        <v>79.29683202822562</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>95.24140839470435</v>
+        <v>84.7714072277317</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>28.26859813488003</v>
+        <v>15.75218688243262</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>70.51889607972376</v>
+        <v>65.52353607879087</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>78.8544492388768</v>
+        <v>69.01387118397616</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>10.6233552106692</v>
+        <v>11.24446486167729</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>19.16989189134789</v>
+        <v>12.02064429442195</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>25.33198177421549</v>
+        <v>17.40394911876388</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>4.946780047159916</v>
+        <v>-0.1090269523533713</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>22.96297951143379</v>
+        <v>12.84891724461628</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>26.12207076540137</v>
+        <v>12.72492267272642</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>10.03137384385207</v>
+        <v>5.742050579105566</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>36.61095681037318</v>
+        <v>24.04524449805069</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>42.06352938117247</v>
+        <v>26.00907975617017</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>33.69736641870381</v>
+        <v>20.53141193321602</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>39.0751506647358</v>
+        <v>23.6010468429287</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>42.77594828441947</v>
+        <v>30.41058985746263</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>20.85170301383362</v>
+        <v>61.11514649069986</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>34.2980097968644</v>
+        <v>64.71332858821998</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>45.14176320078274</v>
+        <v>59.8748083638647</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>12.97885742608863</v>
+        <v>9.284333092575437</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>27.98937840112562</v>
+        <v>24.81589627578169</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>37.62326425118913</v>
+        <v>39.10342333179292</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>7.018476907602</v>
+        <v>0.6885271147109862</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>20.68158680626545</v>
+        <v>9.491340531876251</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>33.048878751728</v>
+        <v>25.59931305058397</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>34.32615513227845</v>
+        <v>26.17562592449375</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>49.3493166141886</v>
+        <v>49.62575839448131</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>33.65742094119484</v>
+        <v>27.43001970951048</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>41.97563697125491</v>
+        <v>43.55792084825761</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>55.10546589596187</v>
+        <v>62.91734769590627</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>15.86616713955783</v>
+        <v>6.208508365812463</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>44.86998505579442</v>
+        <v>38.18568879155535</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>55.25242990187986</v>
+        <v>47.16549178133557</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>21.59876356997723</v>
+        <v>19.81795799082373</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>38.61723008214555</v>
+        <v>31.02844296153246</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>49.22371406060405</v>
+        <v>41.55920471797266</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>9.121897342307051</v>
+        <v>2.284407018841421</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>31.66896105314162</v>
+        <v>14.66883850076418</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>40.38679839018927</v>
+        <v>25.95303574022215</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>13.97893443382895</v>
+        <v>7.760389120296665</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>46.66879937117248</v>
+        <v>36.88967445259802</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>66.46466348185477</v>
+        <v>57.44996819058221</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>52.77980168515383</v>
+        <v>37.78291188800886</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>65.92873485731032</v>
+        <v>55.37041747695595</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>80.04302182081287</v>
+        <v>70.40649531715252</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>26.59026647334716</v>
+        <v>26.00351728874779</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>57.81311563581156</v>
+        <v>53.49839087200774</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>71.08747378124117</v>
+        <v>62.26635811150442</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>17.62772207112151</v>
+        <v>7.847022171053197</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>31.05778964958188</v>
+        <v>22.52442629347258</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>37.36228492946515</v>
+        <v>28.54215351605725</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>10.8153739344158</v>
+        <v>0.8538965759036969</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>35.59001908927081</v>
+        <v>30.50269241742773</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>39.33431436906391</v>
+        <v>34.38311421885547</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>18.50746799795943</v>
+        <v>8.005042177082494</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>54.19409957587781</v>
+        <v>61.0204994906419</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>59.03069153231965</v>
+        <v>58.96805871014026</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>46.6825088887486</v>
+        <v>43.694916734587</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>53.73305578776959</v>
+        <v>58.69338489770058</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>56.11882775420096</v>
+        <v>62.99502156629571</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>21.11791587762976</v>
+        <v>12.94560109197234</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>37.24228347461069</v>
+        <v>14.6284938729947</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>47.09448041547333</v>
+        <v>16.91805528389519</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>27.67896448203321</v>
+        <v>20.56761459841054</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>47.06453466797304</v>
+        <v>41.63135071400487</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>53.92124159135841</v>
+        <v>43.9642913405805</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>20.39946977854735</v>
+        <v>3.538699453342097</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>40.76713041070325</v>
+        <v>30.52600732838241</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>51.50468113643259</v>
+        <v>38.78577768843634</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>59.19313190456609</v>
+        <v>56.0072495564244</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>70.7124763710529</v>
+        <v>63.18479719151172</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>56.30269183467395</v>
+        <v>58.95564244546229</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>66.86483265752921</v>
+        <v>70.86734070217024</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>75.89210431922515</v>
+        <v>78.28762571844874</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>30.35851719780575</v>
+        <v>30.55169309455592</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>62.57105735090204</v>
+        <v>60.23760818281509</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>70.58243127098797</v>
+        <v>64.64525636526486</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>29.59902133051308</v>
+        <v>22.32527879883451</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>50.79179313567766</v>
+        <v>42.1088490460566</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>59.66359609585478</v>
+        <v>46.32114668717547</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>16.8447658290912</v>
+        <v>0.8894667685905162</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>44.3407025403959</v>
+        <v>28.92637298091845</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>52.81060944606597</v>
+        <v>35.97051664435891</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>23.34170711746729</v>
+        <v>7.402843239862058</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>63.04206800653396</v>
+        <v>57.90327275358061</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>81.2992714381252</v>
+        <v>69.55198898598921</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>68.20441494633995</v>
+        <v>67.59290372080109</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>83.65552935410933</v>
+        <v>77.3982358462965</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>94.18417520680234</v>
+        <v>80.03917903034099</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>33.70437079227946</v>
+        <v>30.18719643181264</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>68.43889620014264</v>
+        <v>63.65677749106969</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>80.92012305761044</v>
+        <v>71.6063237912268</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>11.90701469203209</v>
+        <v>2.020726741826159</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>27.92545887132979</v>
+        <v>16.08041061982648</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>36.37370034243853</v>
+        <v>29.60896771819746</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>10.15701656685426</v>
+        <v>-0.242937312611005</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>38.87175553958132</v>
+        <v>35.57532048065829</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>42.6277140205487</v>
+        <v>36.37874717425562</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>17.2298397121684</v>
+        <v>4.962222710096405</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>56.17432090786235</v>
+        <v>66.30534322711223</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>61.07280685671367</v>
+        <v>64.43891905098329</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>47.57794820163404</v>
+        <v>44.7459260145438</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>53.81618377282748</v>
+        <v>61.58749108703496</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>57.70975862337323</v>
+        <v>65.76738253322837</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>12.9773363404548</v>
+        <v>4.604642243121624</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>34.37307355357321</v>
+        <v>4.700748335692928</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>40.80387018668463</v>
+        <v>7.819167721675957</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>22.96118570242808</v>
+        <v>15.02892921070146</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>46.07675254020285</v>
+        <v>42.2210922378137</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>52.53277763076598</v>
+        <v>45.9359302264518</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>17.66981032078551</v>
+        <v>4.615640952981451</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>44.3956099931924</v>
+        <v>36.48652440811526</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>53.11650736873427</v>
+        <v>41.7406257925544</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>23.24023630672296</v>
+        <v>4.587564354265592</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>64.2202624580252</v>
+        <v>63.21654228227743</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>72.64518780008896</v>
+        <v>66.08715943981159</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>56.7105751578099</v>
+        <v>49.062432184459</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>66.3371286770894</v>
+        <v>66.93483097144424</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>76.08185630084606</v>
+        <v>75.68407049230746</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>25.2560535373036</v>
+        <v>17.3416162887935</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>63.99269913964281</v>
+        <v>65.45124604930284</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>68.69404332040149</v>
+        <v>69.08547759674542</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>25.50743093029161</v>
+        <v>18.62937808906732</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>15.48258233859798</v>
+        <v>1.904435009108525</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>47.93526976545106</v>
+        <v>35.05951486611539</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>53.58340339354181</v>
+        <v>38.70443391927216</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>23.79492039484902</v>
+        <v>5.847643907887978</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>68.15485385036932</v>
+        <v>66.26577103330698</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>82.37941276335403</v>
+        <v>73.45659527796076</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>69.83107300672157</v>
+        <v>65.01818753737902</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>83.25140053884674</v>
+        <v>81.61172220486974</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>93.21710937777229</v>
+        <v>86.57425593350513</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>28.77522442961151</v>
+        <v>15.11570459390975</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>70.47064328266354</v>
+        <v>68.29489266240516</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>76.57236151855308</v>
+        <v>72.73213232281405</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>3.409358478680533</v>
+        <v>5.703151440823028</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>11.57365463982095</v>
+        <v>5.06513647701793</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>17.95990131480936</v>
+        <v>10.995487027003</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>0.169200244969252</v>
+        <v>-0.7553514862040771</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>18.17714316393199</v>
+        <v>10.80101797293601</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>20.03948317297468</v>
+        <v>10.66566674163563</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>3.030434534554905</v>
+        <v>2.209231980866836</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>28.87518490169712</v>
+        <v>18.94278307433336</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>33.18699458192204</v>
+        <v>20.84263711392833</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>29.72298439894905</v>
+        <v>21.31820732415917</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>35.09457566527227</v>
+        <v>26.94722082642513</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>37.91829345843012</v>
+        <v>26.60334408891269</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>4.96312820383296</v>
+        <v>4.564069045187672</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>20.7535483333309</v>
+        <v>7.942683952447471</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>28.13451439374779</v>
+        <v>10.66099346021456</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>12.3085947378141</v>
+        <v>9.502921031844025</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>28.21223856630048</v>
+        <v>24.55903392777414</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>37.56439403418511</v>
+        <v>32.93088413674758</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>8.485602050375926</v>
+        <v>4.234656845371305</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>24.98315398248734</v>
+        <v>18.90563764795803</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>35.19182228073026</v>
+        <v>27.75339116435438</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>10.6231662140192</v>
+        <v>5.628987908260054</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>38.33033436975033</v>
+        <v>31.2200575687029</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>50.8622238356628</v>
+        <v>46.55856478923392</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>37.41946923233949</v>
+        <v>34.08014403997791</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>46.72574884058967</v>
+        <v>48.74899017311007</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>55.92558622296668</v>
+        <v>56.74022407944237</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>12.18067984576285</v>
+        <v>8.711975914562558</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>43.88767263663128</v>
+        <v>38.25505180185061</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>52.18279578570791</v>
+        <v>46.93274958819925</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>16.61206709528656</v>
+        <v>8.744855712178605</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>36.36925940808189</v>
+        <v>26.8860676330924</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>46.89082136132713</v>
+        <v>37.47260658441297</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>9.655104939840234</v>
+        <v>0.4187362006105104</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>35.55990853174053</v>
+        <v>24.72050841353471</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>43.07742870178831</v>
+        <v>31.9267579561746</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>14.40913600287112</v>
+        <v>3.167356746219987</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>49.70054834223155</v>
+        <v>43.76376722893531</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>66.23347992141643</v>
+        <v>56.06411944419571</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>57.65573448796918</v>
+        <v>54.99950698291534</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>70.8136038303125</v>
+        <v>67.73794634129321</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>80.81735879643117</v>
+        <v>71.9394805895912</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>21.80251843154823</v>
+        <v>9.3014474284446</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>58.41384837238544</v>
+        <v>53.3632214989217</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>68.65292557887891</v>
+        <v>64.42200190471097</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>1.882643144385106</v>
+        <v>3.287606817402036</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>9.840843213968602</v>
+        <v>6.062725113545536</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>16.68441696316585</v>
+        <v>8.971463730817145</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-2.510457797076578</v>
+        <v>-0.8732159475732004</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>15.03077499011477</v>
+        <v>9.51265950912263</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>19.1361834842463</v>
+        <v>9.371752869995273</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>0.7459485926982481</v>
+        <v>2.982709603892324</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>27.45946524317763</v>
+        <v>16.87478500706592</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>32.32702477066548</v>
+        <v>14.30132307429344</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>21.98427082072431</v>
+        <v>12.7213022168973</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>28.47421302625076</v>
+        <v>14.88691781885486</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>31.3689564185862</v>
+        <v>13.68361699014741</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>3.203395446474126</v>
+        <v>6.620783195359554</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>15.72668360999515</v>
+        <v>11.18619456315459</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>24.9827540211257</v>
+        <v>12.19155958196895</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>1.909001475712106</v>
+        <v>2.021291915687733</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>15.11434263227816</v>
+        <v>7.704146214063563</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>23.61944303607785</v>
+        <v>18.13798656829309</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-1.400714421964215</v>
+        <v>0.02488852344045256</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>10.44105356165464</v>
+        <v>1.090788171859423</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>21.95116471758271</v>
+        <v>10.01864210184253</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-1.495248261417741</v>
+        <v>1.954296341600749</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>23.36348717581527</v>
+        <v>8.79140266296594</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>36.44066564612395</v>
+        <v>25.66958452664702</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>21.20584152240835</v>
+        <v>13.88819557379703</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>31.45471316862388</v>
+        <v>25.49109000318698</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>42.4665705798035</v>
+        <v>40.57268187505935</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>1.718587841180307</v>
+        <v>2.561738859445633</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>27.54019879916564</v>
+        <v>11.95139336966948</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>35.03824094478842</v>
+        <v>12.41076223685585</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>8.595737867329643</v>
+        <v>3.038361138826797</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>24.24084551795334</v>
+        <v>8.131204069643207</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>35.848574431577</v>
+        <v>24.50683166553256</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>1.351257381417513</v>
+        <v>-2.536715384627826</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>20.75908801402041</v>
+        <v>2.851493668448299</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>31.22079216098737</v>
+        <v>19.9722183136302</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>3.587229169856924</v>
+        <v>-0.1558361430170052</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>33.84497064304421</v>
+        <v>11.45333235860462</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>54.8320620255197</v>
+        <v>48.20788849801576</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>39.20634148497892</v>
+        <v>17.10980986515856</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>54.68285558655113</v>
+        <v>45.83988493138047</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>67.68342401280074</v>
+        <v>63.60674492811404</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>9.281570430093607</v>
+        <v>-1.838394447410128</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>38.82382964310883</v>
+        <v>10.05929362854559</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>52.18346454833517</v>
+        <v>22.95967654261001</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>14.07027853118596</v>
+        <v>11.72861615700601</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>29.19745879567374</v>
+        <v>21.53864677528821</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>39.42690672763445</v>
+        <v>37.56337083944874</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>14.99957857327021</v>
+        <v>4.462621705736261</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>45.97997546421925</v>
+        <v>45.10221509812011</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>49.33673340152512</v>
+        <v>45.37334682781785</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>22.71518825075333</v>
+        <v>6.679536166975218</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>63.66241818352464</v>
+        <v>64.99293374191595</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>69.11499506395037</v>
+        <v>69.1678559761734</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>58.83612662630027</v>
+        <v>53.6867385132695</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>65.7075287187717</v>
+        <v>59.15275274496219</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>69.19938296034252</v>
+        <v>58.89710030823784</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>22.75520784887834</v>
+        <v>20.1718749150229</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>48.05779350653454</v>
+        <v>37.03961042435677</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>60.27236170668088</v>
+        <v>70.67535078430849</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>12.62157847945308</v>
+        <v>9.361242094194264</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>34.19393528854219</v>
+        <v>31.74460450165368</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>41.76854859207415</v>
+        <v>34.85693367994178</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>8.44912914447834</v>
+        <v>0.1578876619252227</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>34.59293591505649</v>
+        <v>28.40078228468483</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>41.76495735105469</v>
+        <v>31.32248701620482</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>13.05577576309858</v>
+        <v>1.89480858898267</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>53.31868218591148</v>
+        <v>48.00450977380156</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>61.62146729894814</v>
+        <v>53.16435038846951</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>47.68561129428009</v>
+        <v>43.13565236068374</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>58.33606606671563</v>
+        <v>54.34531516520504</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>67.15162228341015</v>
+        <v>60.04164543920766</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>16.60359948485573</v>
+        <v>16.25496996424614</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>54.29817133443755</v>
+        <v>50.8437522352696</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>60.78226904393689</v>
+        <v>56.18365163008259</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>16.27683251941274</v>
+        <v>12.7327080368333</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>40.47467403913329</v>
+        <v>33.84444597431285</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>50.39986276899521</v>
+        <v>42.3713331004551</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>9.801572007984538</v>
+        <v>1.797164638994182</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>43.89179486186985</v>
+        <v>35.05475722302809</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>50.80651848137571</v>
+        <v>38.58733939047491</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>17.52390676294561</v>
+        <v>6.113434738584473</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>63.51229900329016</v>
+        <v>59.94736024050243</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>78.75883380211883</v>
+        <v>72.04880934639623</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>66.33082415511889</v>
+        <v>62.74731644617934</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>80.850237461744</v>
+        <v>74.01313370182531</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>90.7762816317521</v>
+        <v>77.42081687690326</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>25.34602672866066</v>
+        <v>15.16527025968892</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>68.31019904246615</v>
+        <v>63.22929991027829</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>76.8269430961528</v>
+        <v>72.94866236583393</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>2.996095539578951</v>
+        <v>5.984221841387587</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>10.64760623721157</v>
+        <v>7.980558045316069</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>17.71158732911938</v>
+        <v>12.83817625673649</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>0.6511384169400642</v>
+        <v>-1.129266852167433</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>13.73083356417564</v>
+        <v>4.745139373833595</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>18.79830321488233</v>
+        <v>7.951616801852019</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>2.337298637164967</v>
+        <v>2.158420258967627</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>24.19031416715581</v>
+        <v>13.38556329232515</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>29.39322620764689</v>
+        <v>16.67483872783791</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>22.91142701430565</v>
+        <v>14.56195158618258</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>26.68526148442015</v>
+        <v>17.57091477883641</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>31.13339113566627</v>
+        <v>20.29316453156886</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>3.012403703434158</v>
+        <v>5.385503504999171</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>16.8498939141823</v>
+        <v>12.07268891749104</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>23.51518011400962</v>
+        <v>12.0337865297088</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>6.01530978064527</v>
+        <v>5.817039901000005</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>18.50670917213809</v>
+        <v>15.27075806755919</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>28.73214210763248</v>
+        <v>26.0997737560654</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>2.183604469987694</v>
+        <v>0.3593355124392623</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>11.68916048656884</v>
+        <v>6.463416029717735</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>24.67771295787302</v>
+        <v>20.9753616255191</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>2.872090915682241</v>
+        <v>1.104515065816301</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>23.83450364464326</v>
+        <v>10.92204223630342</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>38.82349310170278</v>
+        <v>35.91526821914458</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>20.89378215696279</v>
+        <v>15.54811824895795</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>28.90469568326301</v>
+        <v>27.33329211569291</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>39.68365565608592</v>
+        <v>39.46130671008427</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>1.798221743338035</v>
+        <v>3.988216111265281</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>25.91268877129748</v>
+        <v>20.83313951705394</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>35.31714044765407</v>
+        <v>32.43242132430077</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>11.63856628053058</v>
+        <v>11.21901159844399</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>28.10095222360491</v>
+        <v>21.41028464004551</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>39.63080056794392</v>
+        <v>34.3416157296878</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>5.223646733943982</v>
+        <v>0.3824167342601328</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>22.93080433733788</v>
+        <v>12.69030787327543</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>33.73127618497858</v>
+        <v>25.56695107671598</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>7.506760394390169</v>
+        <v>5.295746413810171</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>36.42914066372043</v>
+        <v>25.00120505225761</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>55.76337868664657</v>
+        <v>47.64859369403936</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>39.66615983133475</v>
+        <v>28.49585973308361</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>50.03178133504352</v>
+        <v>37.99354330573006</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>65.66338731742931</v>
+        <v>60.85737563870144</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>11.52297615453024</v>
+        <v>14.60930769217463</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>40.86804629007896</v>
+        <v>32.17446104971357</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>53.43121760028469</v>
+        <v>47.17862499778271</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>0.4429238409305434</v>
+        <v>1.296789037212765</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>10.79480976836443</v>
+        <v>-1.35514099834424</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>17.94109450027497</v>
+        <v>5.561045251638156</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>-5.13545873985357</v>
+        <v>-3.601622460202559</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>13.73021022873239</v>
+        <v>1.412793665851432</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>18.10703276531815</v>
+        <v>3.276903764944898</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-1.326960248950561</v>
+        <v>3.874870936316889</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>27.86152803319919</v>
+        <v>10.38601460737077</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>32.15516015964783</v>
+        <v>11.01032211065931</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>22.87738572738331</v>
+        <v>-0.02370443345534312</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>27.47793967145575</v>
+        <v>1.543366508098451</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>32.78606434392967</v>
+        <v>13.9929896043074</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-1.044525486200532</v>
+        <v>-0.3516244421289088</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>16.66093710863961</v>
+        <v>-1.603417313643988</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>21.59800174673964</v>
+        <v>3.467792546971648</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>17.89314721783808</v>
+        <v>16.66435658638466</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>36.47609582924331</v>
+        <v>33.57123428121828</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>43.41878365194641</v>
+        <v>38.11926559412206</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>11.22019091339363</v>
+        <v>4.990894790909206</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>30.74137625784566</v>
+        <v>24.53120297620977</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>40.81919354410149</v>
+        <v>30.79859020170722</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>15.50356206786335</v>
+        <v>10.20317382367042</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>49.09156274151955</v>
+        <v>46.72204425933516</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>58.50640443303452</v>
+        <v>55.2453235478331</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>44.84637162800133</v>
+        <v>44.85565097214158</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>52.22278940645225</v>
+        <v>52.27121580573787</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>62.11501376723096</v>
+        <v>58.23370986800676</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>18.17390722612723</v>
+        <v>16.04210982301058</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>50.25251289682942</v>
+        <v>46.35570818645631</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>56.74093855167563</v>
+        <v>49.35215547484917</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>23.33232380454944</v>
+        <v>18.13800542306957</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>45.30892771393521</v>
+        <v>36.10133393266601</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>53.44637985729134</v>
+        <v>46.84803138302975</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>12.32302745790999</v>
+        <v>1.763784892517918</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>39.85281395361822</v>
+        <v>28.9842990535875</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>47.1131014660712</v>
+        <v>34.54260230044287</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>19.71157324325991</v>
+        <v>7.006219687236957</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>60.08953556215648</v>
+        <v>55.25345360372155</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>74.84142574641011</v>
+        <v>65.71260962143886</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>61.81693503044443</v>
+        <v>60.60947554176329</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>74.43682715354646</v>
+        <v>73.80514423498519</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>85.95343334753019</v>
+        <v>76.74348758836909</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>25.03722641332686</v>
+        <v>12.74322750863758</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>63.55346659568427</v>
+        <v>58.25251927492857</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>70.5128756940108</v>
+        <v>63.32146152869395</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>7.218172789720607</v>
+        <v>12.1500087381877</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>15.1235781893262</v>
+        <v>13.61037346835315</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>21.5070038034703</v>
+        <v>16.05197391700987</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>2.628797511618098</v>
+        <v>1.877372969139905</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>20.03995256800821</v>
+        <v>12.5504169576806</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>22.75874792783365</v>
+        <v>12.77153198384932</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>7.152890192058221</v>
+        <v>9.256383037598514</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>32.0537103967892</v>
+        <v>24.20580659962186</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>34.96589942903928</v>
+        <v>22.50870177836261</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>29.37513757391927</v>
+        <v>21.51424002248239</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>32.43769056043952</v>
+        <v>25.78104949219333</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>36.99908586826783</v>
+        <v>26.81513890249528</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>8.66520564636112</v>
+        <v>12.68638191947203</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>21.24287866964508</v>
+        <v>16.80957756763132</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>27.48349444148815</v>
+        <v>17.01325190542768</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>3.180747940208098</v>
+        <v>4.691244126635254</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>16.02442719977908</v>
+        <v>11.01464854576145</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>23.63305316120221</v>
+        <v>16.96728134676608</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-1.587299721116617</v>
+        <v>-2.984055087375499</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>10.59277100248159</v>
+        <v>1.163717750801808</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>19.92942166705858</v>
+        <v>12.0728679133092</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-0.4917998358165931</v>
+        <v>-1.846464442544189</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>23.51689920999862</v>
+        <v>8.274592994172298</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>32.95708378771052</v>
+        <v>24.32165581117659</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>20.58496207462415</v>
+        <v>11.98865273441591</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>26.15701267404754</v>
+        <v>19.78844686024988</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>37.37006070734424</v>
+        <v>28.62679869993468</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>1.899827982494777</v>
+        <v>-0.6108686139752493</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>24.02926098193858</v>
+        <v>10.21000146989429</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>31.52325389985041</v>
+        <v>17.0190501089904</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>14.3332418926557</v>
+        <v>16.01466983319605</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>32.49029275972472</v>
+        <v>25.80945156674387</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>39.97839936386001</v>
+        <v>31.54372003162868</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>5.505614388759254</v>
+        <v>-0.2746317147527222</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>29.3184475292516</v>
+        <v>14.81224522305485</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>34.47279004392055</v>
+        <v>20.83997427104767</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>10.79028716423267</v>
+        <v>5.393229257533868</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>45.13554640760771</v>
+        <v>33.02196847253298</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>57.95683972714453</v>
+        <v>44.89411976244251</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>46.84486294422592</v>
+        <v>40.63898165241002</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>55.30055682737839</v>
+        <v>44.76217987732966</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>68.51446504692711</v>
+        <v>56.52889471978906</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>16.34875926148252</v>
+        <v>11.59838551244739</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>47.11946816908565</v>
+        <v>35.52211171521362</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>53.57820640834105</v>
+        <v>39.91067508881025</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>0.8615879066873173</v>
+        <v>3.037995603159235</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>6.098470211196481</v>
+        <v>2.665699756837743</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>10.38231688906303</v>
+        <v>2.450837865366829</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-2.892192794956427</v>
+        <v>-1.847559298250324</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>9.213467270250606</v>
+        <v>1.095115140517262</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>10.30621852328282</v>
+        <v>-0.233251557142836</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-0.3570501705418394</v>
+        <v>5.708763205578371</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>18.80417655398627</v>
+        <v>8.174885160100771</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>19.50639730530516</v>
+        <v>3.988990827571165</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>14.83110504562776</v>
+        <v>4.195263519812823</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>17.3297113053908</v>
+        <v>3.111019787792614</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>19.58425706866922</v>
+        <v>4.276035326988389</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>0.8386528598835152</v>
+        <v>4.487331277492018</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>10.32728259903541</v>
+        <v>6.39885825602029</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>14.41351020344722</v>
+        <v>3.052468383387058</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>0.2801039555304783</v>
+        <v>-0.1110090263037975</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>9.976936467102144</v>
+        <v>2.311920618957494</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>14.86753547494347</v>
+        <v>2.50298088997458</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-4.089322695324055</v>
+        <v>-1.457577280395515</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>3.408053757308231</v>
+        <v>-3.883302351744792</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>9.972282113176167</v>
+        <v>0.8047687505156098</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-4.029103247249129</v>
+        <v>-0.6100701319072286</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>14.56881227945053</v>
+        <v>2.458709860265298</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>21.39854996167784</v>
+        <v>5.270714714390891</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>10.72426834407808</v>
+        <v>4.861670907688499</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>15.49600357042503</v>
+        <v>7.652711363041306</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>22.56208273883583</v>
+        <v>6.769499670638517</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-2.252214973917656</v>
+        <v>-1.896838904990091</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>15.57964691241397</v>
+        <v>2.444091677165265</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>20.99182578477738</v>
+        <v>2.322786044067847</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>13.55790783641336</v>
+        <v>16.8877344669779</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>27.08220710346404</v>
+        <v>20.53058684726807</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>32.1347465612808</v>
+        <v>23.19136993544627</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>3.849298133616415</v>
+        <v>3.140486641745916</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>21.14298726612301</v>
+        <v>9.635039929622764</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>24.19269180207352</v>
+        <v>13.97308713679082</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>8.271990570601808</v>
+        <v>8.469917760374464</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>35.95404373528</v>
+        <v>26.70259936140176</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>46.05824172065076</v>
+        <v>30.38866179193652</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>36.27039906844332</v>
+        <v>28.83550462940449</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>44.17238570819186</v>
+        <v>30.13577303809952</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>53.33742233064616</v>
+        <v>35.65993538397068</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>13.43602291339949</v>
+        <v>18.79720019814396</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>37.06580367422311</v>
+        <v>25.1904431630181</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>42.60213913468247</v>
+        <v>27.88450627878665</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>15.76073161428657</v>
+        <v>22.0246075606127</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>26.11547000655305</v>
+        <v>29.98053480096821</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>32.97407028636066</v>
+        <v>37.57459379443696</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>9.492795114726388</v>
+        <v>5.194106953559967</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>30.19006916101937</v>
+        <v>20.64282199039995</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>33.01419727782477</v>
+        <v>26.52520545660169</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>16.65769186129393</v>
+        <v>13.02091150974935</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>46.69285786592401</v>
+        <v>41.53161989384601</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>52.28324828310247</v>
+        <v>47.99041413400121</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>41.79409056918383</v>
+        <v>37.976937687533</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>48.09729307897157</v>
+        <v>44.1755556381622</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>51.24643022724677</v>
+        <v>46.75407587546189</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>23.74707839742267</v>
+        <v>28.09872414970778</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>39.22921799739096</v>
+        <v>49.75067875755997</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>50.8258473998989</v>
+        <v>56.49282749412745</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>11.12286345667091</v>
+        <v>11.79923811309464</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>26.61140589892629</v>
+        <v>23.14678759697181</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>35.30667279982789</v>
+        <v>29.9089512581713</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>4.357860751493938</v>
+        <v>-2.319748150058587</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>18.66940974898717</v>
+        <v>6.945829351636824</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>28.94983806231356</v>
+        <v>12.68656208848277</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>6.256461001682576</v>
+        <v>2.604613406788015</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>34.13571866493833</v>
+        <v>22.33205131782207</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>47.12373311002052</v>
+        <v>31.80187146990011</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>32.37129683729224</v>
+        <v>26.23882792429733</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>40.97742352468507</v>
+        <v>33.05699411293224</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>51.41243982914845</v>
+        <v>39.57331829650456</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>13.19578848067746</v>
+        <v>13.11444329818639</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>41.43970983978355</v>
+        <v>34.65160233460675</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>51.79377788161027</v>
+        <v>41.01175720925845</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>20.07970908423565</v>
+        <v>21.78321295635389</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>38.89190959373839</v>
+        <v>34.32317384562755</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>49.55281431137757</v>
+        <v>44.97409391949446</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>8.22075668008703</v>
+        <v>2.092086176005807</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>32.89127052301598</v>
+        <v>19.07441730478062</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>40.58109154901182</v>
+        <v>24.74682978518958</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>13.89757377294255</v>
+        <v>10.4192618358755</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>48.90660049200181</v>
+        <v>42.50956077941402</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>67.90963409709715</v>
+        <v>54.28867515631987</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>56.08842780227114</v>
+        <v>55.63065852248262</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>68.45764893624479</v>
+        <v>62.40053496656558</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>80.81018999128405</v>
+        <v>65.68857252000271</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>25.53088790823233</v>
+        <v>23.4813335650413</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>57.58895855347055</v>
+        <v>48.32015569884923</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>71.58911235493846</v>
+        <v>60.11163658494525</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>17.7053742257128</v>
+        <v>14.40441700978567</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>33.47107907224379</v>
+        <v>32.47698335668875</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>40.88880131687177</v>
+        <v>39.9731665575101</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>16.3527317182089</v>
+        <v>5.630308033950758</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>42.05779073911618</v>
+        <v>34.47284399916995</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>46.92817068394771</v>
+        <v>38.19913166627102</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>23.30562802693925</v>
+        <v>11.62875678413167</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>58.95049521779347</v>
+        <v>57.1355432514685</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>63.40724132641467</v>
+        <v>61.66043998770839</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>54.89908529905122</v>
+        <v>58.55388955385239</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>60.42284790025577</v>
+        <v>65.38117320513501</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>64.64706110644605</v>
+        <v>63.11404829270801</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>21.81087783561103</v>
+        <v>13.60816949402677</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>47.41278615739918</v>
+        <v>40.1661400491793</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>54.90158004596609</v>
+        <v>48.5829591320543</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>12.72205017543175</v>
+        <v>10.0221743783583</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>31.85630764139307</v>
+        <v>30.46756800851926</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>40.6242027411396</v>
+        <v>35.61978375332971</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>8.57758336370426</v>
+        <v>2.130815153184706</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>27.61102132893159</v>
+        <v>21.45930751431077</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>38.99117879742681</v>
+        <v>31.15263489801115</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>11.86920539361564</v>
+        <v>3.832404501367847</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>44.23943597048646</v>
+        <v>38.22708843403045</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>55.80259399117571</v>
+        <v>50.85102977650091</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>41.34568580119669</v>
+        <v>41.96812477810302</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>50.17789855578722</v>
+        <v>52.4630912298899</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>60.32616502067381</v>
+        <v>59.56426236308394</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>11.70246732006755</v>
+        <v>6.773804100612082</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>45.62994188558747</v>
+        <v>42.11774457380265</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>54.25468276243198</v>
+        <v>49.54853068803661</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>15.45265493869691</v>
+        <v>9.714808667335566</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>39.1397390792724</v>
+        <v>30.5271144554256</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>48.81945813529712</v>
+        <v>41.66074659450905</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>8.435430186863876</v>
+        <v>-2.409137936883095</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>36.8531697659764</v>
+        <v>23.66564219197475</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>45.9848024986292</v>
+        <v>34.29937238858636</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>14.90724957028543</v>
+        <v>1.165911947319298</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>55.66665461482003</v>
+        <v>43.53323350113688</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>72.41623814217124</v>
+        <v>63.67211385671902</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>58.06266373236997</v>
+        <v>51.83938146026286</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>72.28366733714137</v>
+        <v>67.49282249079675</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>84.65331528633627</v>
+        <v>77.95373978941815</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>19.48698507079805</v>
+        <v>4.78560324046331</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>59.80679723332115</v>
+        <v>49.45068578376863</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>70.0165899603267</v>
+        <v>60.59362895757187</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>16.30290979284754</v>
+        <v>9.765930196615328</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>31.53065870889003</v>
+        <v>24.18019528503019</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>39.23518290181837</v>
+        <v>36.21365254967219</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>13.0575185410815</v>
+        <v>4.445693502187673</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>41.44404756542612</v>
+        <v>42.31406450547738</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>46.36510557792457</v>
+        <v>48.72185521225489</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>20.09225477339734</v>
+        <v>7.690597059538053</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>58.70244864112016</v>
+        <v>64.67052204163423</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>64.9186243631577</v>
+        <v>67.48461362095355</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>52.02186537573057</v>
+        <v>56.88647895155612</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>59.65491597201715</v>
+        <v>55.21795078398463</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>62.85526085362912</v>
+        <v>60.68436075766594</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>22.2530518051305</v>
+        <v>9.258536991377525</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>43.17876866711701</v>
+        <v>29.75429227020313</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>57.9536462065678</v>
+        <v>59.10734969872269</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>14.88484814621969</v>
+        <v>9.99224108668739</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>36.33005506132075</v>
+        <v>31.45481549893251</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>44.44950685383845</v>
+        <v>37.34689216234575</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>9.810755105875977</v>
+        <v>-0.420235833747455</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>33.07950444463697</v>
+        <v>23.80712334024038</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>44.49335200683571</v>
+        <v>31.69010995883417</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>12.18534177276744</v>
+        <v>-0.03864516886434188</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>49.42952491469992</v>
+        <v>44.05655767792094</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>62.44897954389703</v>
+        <v>51.25632864798909</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>45.71003558012247</v>
+        <v>40.7573215298114</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>57.5687457897029</v>
+        <v>52.45486620629427</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>67.95334491736136</v>
+        <v>59.03370764050546</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>16.20920866644113</v>
+        <v>6.141319573633531</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>53.2280343488621</v>
+        <v>42.8517305091132</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>64.34961531149219</v>
+        <v>51.86096723422942</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>18.9600496704355</v>
+        <v>10.58723480813788</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>42.97060139533857</v>
+        <v>33.1073407162107</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>52.9917967506851</v>
+        <v>42.2167891525423</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>9.414012349993783</v>
+        <v>-0.7054893379999783</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>41.12520568610285</v>
+        <v>30.03935710124163</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>50.47900635508633</v>
+        <v>39.16770584602256</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>14.61258232150362</v>
+        <v>0.8290464988709658</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>57.73213811423351</v>
+        <v>51.08191384075131</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>77.22438260408711</v>
+        <v>64.35659524246091</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>64.09856486478893</v>
+        <v>60.6579691319339</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>80.29475230864065</v>
+        <v>73.72104010047501</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>91.76860888633065</v>
+        <v>77.86949218782888</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>24.16304651185693</v>
+        <v>7.754976141068504</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>64.54269008015083</v>
+        <v>52.62553029105057</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>79.28262380886994</v>
+        <v>65.1190475655884</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>21.23499740001177</v>
+        <v>19.47690674508557</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>32.80197268636368</v>
+        <v>24.02730571428649</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>39.33246564767384</v>
+        <v>36.75276062572394</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>20.1684575892482</v>
+        <v>13.6258908857421</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>45.07060411425395</v>
+        <v>52.76097778545994</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>49.08874373621877</v>
+        <v>54.37653314042849</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>24.17494009773967</v>
+        <v>15.57343074785307</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>58.22884715966818</v>
+        <v>62.28642669013949</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>63.99268809923335</v>
+        <v>68.80639020512319</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>50.67885569086408</v>
+        <v>55.34265397250384</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>57.08533779018776</v>
+        <v>55.6809735333007</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>60.59475601231937</v>
+        <v>56.79559928547269</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>27.70641312947266</v>
+        <v>14.84741983584681</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>43.01163142095554</v>
+        <v>30.73716383239733</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>57.08795044444085</v>
+        <v>51.01669761502937</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>21.42964479961276</v>
+        <v>23.01094574770653</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>38.60320841584554</v>
+        <v>33.50277411908088</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>47.01915288621704</v>
+        <v>39.98760767090536</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>22.53228456333807</v>
+        <v>34.8312268286163</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>40.74098266573503</v>
+        <v>48.37901131225024</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>52.86308425707134</v>
+        <v>56.11273997773216</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>19.37063848083704</v>
+        <v>10.4220837312668</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>51.25446759681449</v>
+        <v>45.59594795880065</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>65.3551648524931</v>
+        <v>55.6310026277066</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>48.08236438680954</v>
+        <v>43.03447218277326</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>57.82458542023896</v>
+        <v>53.773417999181</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>69.34234038013557</v>
+        <v>56.48549219204261</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>24.3225246909488</v>
+        <v>23.19711934591978</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>54.9986510410446</v>
+        <v>46.11452202803311</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>66.6429822354027</v>
+        <v>52.63714549432885</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>26.03886061229124</v>
+        <v>22.27768260353526</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>45.26548473790167</v>
+        <v>36.336644707817</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>55.50237342537035</v>
+        <v>41.39522582091251</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>22.38178578052083</v>
+        <v>35.72467388709359</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>48.99550210474685</v>
+        <v>53.74903175546016</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>58.293956461806</v>
+        <v>59.37419362005102</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>22.22315692720309</v>
+        <v>12.37439621576478</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>59.68397059517965</v>
+        <v>57.20340923581961</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>79.91258374945696</v>
+        <v>65.28032207526319</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>65.82445303428514</v>
+        <v>64.76154140643122</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>79.73255751457346</v>
+        <v>74.04285762331583</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>92.45986102058367</v>
+        <v>78.39782449594267</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>31.31071114843999</v>
+        <v>23.95706899043905</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>64.57143871763644</v>
+        <v>57.20169664508803</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>80.69801058954644</v>
+        <v>68.0812862573143</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>11.77791175573443</v>
+        <v>8.49268217461913</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>26.66876301580123</v>
+        <v>25.56683460173293</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>35.49591809334932</v>
+        <v>35.23840916586175</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>9.09287013183828</v>
+        <v>1.497814054752521</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>31.06925396762094</v>
+        <v>22.61468345236845</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>38.47192386187808</v>
+        <v>30.04602540707291</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>15.03953108523518</v>
+        <v>7.479590862830392</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>51.00602798126289</v>
+        <v>48.95094297631783</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>57.15544440068134</v>
+        <v>54.36654539751402</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>48.14192055309444</v>
+        <v>53.48972892801785</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>55.52346789044075</v>
+        <v>55.07228085428326</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>58.42311357927618</v>
+        <v>57.82724694535773</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>15.34852636414487</v>
+        <v>7.209745264526624</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>39.34157785964035</v>
+        <v>39.41579767654501</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>49.91465831763239</v>
+        <v>42.31631244697708</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>11.41103470272892</v>
+        <v>9.017747055294816</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>30.95319526933262</v>
+        <v>31.03037941647046</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>40.25589350425516</v>
+        <v>35.0081126374954</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>6.98254384097354</v>
+        <v>1.932213828918346</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>25.6073596365068</v>
+        <v>21.97565126518987</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>37.8503937244223</v>
+        <v>28.87458569643335</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>9.573011573889122</v>
+        <v>2.749952277817364</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>43.16856449186638</v>
+        <v>37.2897859421971</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>56.29783118723711</v>
+        <v>49.67869418063394</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>40.58518206000587</v>
+        <v>40.13601924485513</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>50.900657589087</v>
+        <v>49.56017916993882</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>60.80484547624701</v>
+        <v>56.08741968236254</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>10.32305278939644</v>
+        <v>4.723103393750947</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>43.99543617707431</v>
+        <v>37.18696242723617</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>55.60797982979245</v>
+        <v>47.57634382140018</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>12.98057981541811</v>
+        <v>9.893938606931021</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>36.2247415224576</v>
+        <v>31.22909357083204</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>47.23183482420709</v>
+        <v>41.30538143329804</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>6.30247422944108</v>
+        <v>-0.03318637425786619</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>32.584286862043</v>
+        <v>23.0345625476233</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>43.334515792531</v>
+        <v>33.02427068288452</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>10.10037133500882</v>
+        <v>3.012854304858504</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>50.48778306862784</v>
+        <v>42.04485411793733</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>69.99101010087446</v>
+        <v>62.23586212702551</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>56.63631672559912</v>
+        <v>54.24548298505521</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>72.31989187458647</v>
+        <v>67.3381807312866</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>84.29410325177115</v>
+        <v>75.96294185589645</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>16.34691928054175</v>
+        <v>4.815594443952918</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>57.1126373757746</v>
+        <v>51.09324015503736</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>69.63111789601408</v>
+        <v>62.96737644040077</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>9.017742301876236</v>
+        <v>11.22496013866021</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>16.57445586056884</v>
+        <v>11.79737540557674</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>22.23470892879958</v>
+        <v>16.47441428281284</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>3.014516712854979</v>
+        <v>0.4580990567663434</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>20.05676204361239</v>
+        <v>13.4260868420676</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>22.46708820649119</v>
+        <v>15.16055008808246</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>7.112485591238635</v>
+        <v>9.448374770613317</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>32.11362296036793</v>
+        <v>24.68637344003507</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>36.236150812784</v>
+        <v>27.29303908261717</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>30.09577078054641</v>
+        <v>21.16392014311119</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>34.25351876256271</v>
+        <v>24.64039801169037</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>38.42395473958518</v>
+        <v>27.11271966589329</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>10.40085237564488</v>
+        <v>9.916310061195382</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>22.05971457151325</v>
+        <v>17.81331169310166</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>32.13334830239987</v>
+        <v>20.94808024595503</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>11.82329025339607</v>
+        <v>8.364030281383997</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>25.80243237840869</v>
+        <v>20.28207132007288</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>35.54862621783555</v>
+        <v>29.55634135130616</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>5.190214056160917</v>
+        <v>1.358170363525481</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>18.71713818035786</v>
+        <v>11.71106666593271</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>30.14360232900374</v>
+        <v>23.36040182961356</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>6.207779888255311</v>
+        <v>3.761112131080964</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>31.04169999185787</v>
+        <v>20.8836741489715</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>44.95231433630571</v>
+        <v>40.14200741388728</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>30.79117002628612</v>
+        <v>25.04536098407813</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>38.41760848044537</v>
+        <v>36.88338107504957</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>50.46282165547611</v>
+        <v>49.45528057873647</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>9.031707732701667</v>
+        <v>3.895017271967681</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>35.56333144131685</v>
+        <v>28.74748475341671</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>46.7942675049991</v>
+        <v>40.67230846458231</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>17.00477637358858</v>
+        <v>13.80807023253776</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>34.0756247706547</v>
+        <v>27.05927032708858</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>45.11565512489396</v>
+        <v>38.01152178748339</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>6.524090997056056</v>
+        <v>1.107948391469439</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>29.07508437809569</v>
+        <v>17.40498387740048</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>37.45149377702975</v>
+        <v>30.25927753554065</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>9.831287565181167</v>
+        <v>6.115965041195995</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>41.31030736296711</v>
+        <v>32.56889652810913</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>59.66626895595029</v>
+        <v>52.49022611299512</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>47.38369843455963</v>
+        <v>40.73418772849077</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>57.81386512669015</v>
+        <v>50.31241289745303</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>71.7196544868703</v>
+        <v>60.66289189234791</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>15.62431004043583</v>
+        <v>4.222074547239991</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>45.72298125090239</v>
+        <v>33.46952644124605</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>61.43282431579647</v>
+        <v>54.43510413138906</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>14.62908978604797</v>
+        <v>16.34298625754505</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>25.64257540231658</v>
+        <v>19.48287311061349</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>31.77708753958099</v>
+        <v>24.01796999081235</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>9.704902255982748</v>
+        <v>2.222050996387299</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>33.14234727502686</v>
+        <v>27.24124687211775</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>37.64255521625834</v>
+        <v>28.16598762006082</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>14.98865374344643</v>
+        <v>12.87057865369207</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>47.37722787619205</v>
+        <v>41.01155680161291</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>53.13999350413921</v>
+        <v>43.4000316514649</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>40.52507888659905</v>
+        <v>29.49409118130193</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>46.62643197304114</v>
+        <v>34.24304781062786</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>50.81168905566867</v>
+        <v>37.99415257179086</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>19.65397044922258</v>
+        <v>14.12076499888791</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>34.85610512212457</v>
+        <v>33.09519057759809</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>48.20812022245371</v>
+        <v>39.68740031404812</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>13.57824380981038</v>
+        <v>9.983248458842008</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>30.1684167896541</v>
+        <v>23.79398238051114</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>39.16517093122255</v>
+        <v>33.94211493252285</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>10.10036172818488</v>
+        <v>3.957026076523782</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>27.0620363191539</v>
+        <v>17.25833560290621</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>40.65173393955759</v>
+        <v>34.52594549302059</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>9.010965799422021</v>
+        <v>2.16885906854986</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>39.22836597046721</v>
+        <v>28.12904108758114</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>54.23269592583343</v>
+        <v>43.14202064758773</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>36.83273999363907</v>
+        <v>25.73542736503221</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>46.29861053438277</v>
+        <v>39.16400269454441</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>59.25751558029968</v>
+        <v>55.09896702150749</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>14.20523707666344</v>
+        <v>6.096596650220107</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>44.71562925889768</v>
+        <v>33.2997286370753</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>56.76746683434143</v>
+        <v>42.47106325328757</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>17.36998925081458</v>
+        <v>13.06256534648428</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>36.21935986761505</v>
+        <v>26.0073614350712</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>46.80922580409904</v>
+        <v>33.26684558833318</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>9.129354297895905</v>
+        <v>1.761129775024937</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>34.76152423667992</v>
+        <v>19.46212915184395</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>45.25360814506099</v>
+        <v>31.60221044476119</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>10.960943880773</v>
+        <v>5.434800408252812</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>46.98485837593377</v>
+        <v>36.25426876486755</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>67.84697728740841</v>
+        <v>48.82842021186917</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>53.71910887637773</v>
+        <v>42.66751211010994</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>67.02654434396426</v>
+        <v>51.39094253905203</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>81.20051196103218</v>
+        <v>65.02463964382545</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>20.51899327155061</v>
+        <v>5.306555961490382</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>53.26665091399958</v>
+        <v>29.77412912062166</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>70.05981005920917</v>
+        <v>47.97249212957423</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>19.43953777055433</v>
+        <v>16.99894341182868</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>33.3582950149585</v>
+        <v>27.83852768057938</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>40.57464299263957</v>
+        <v>35.98575587951316</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>16.92836238937147</v>
+        <v>4.930250071582311</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>44.950986282606</v>
+        <v>42.01008997190748</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>49.07561618524636</v>
+        <v>46.19800038663838</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>23.89863308809313</v>
+        <v>12.47554977763978</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>61.40152135085754</v>
+        <v>66.16633807423108</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>66.81461947245728</v>
+        <v>65.99319580821106</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>56.11003555399537</v>
+        <v>54.5274522412717</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>62.27109334783808</v>
+        <v>53.50447904569099</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>65.54208651517187</v>
+        <v>60.17504251684662</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>25.49429377203059</v>
+        <v>17.55658747144189</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>43.65064458913746</v>
+        <v>21.7701468957788</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>60.57546470754315</v>
+        <v>66.64680901721303</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>18.1261312303473</v>
+        <v>21.625727903849</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>36.97670395084688</v>
+        <v>36.11294312701025</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>44.42459430962743</v>
+        <v>38.99860345022896</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>13.28224932043327</v>
+        <v>5.281876208844487</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>35.81865626972331</v>
+        <v>28.28073338228048</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>45.31675902204022</v>
+        <v>34.72225326542816</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>16.95845204684825</v>
+        <v>8.327161841734355</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>52.08261851667021</v>
+        <v>46.35350948647358</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>62.86538793740139</v>
+        <v>54.9285709910947</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>48.43934899928677</v>
+        <v>45.65360037022344</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>57.67975711131059</v>
+        <v>53.74816732114563</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>67.05588082880809</v>
+        <v>60.37242315243962</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>21.37965084369545</v>
+        <v>19.88160626294498</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>53.72522922254136</v>
+        <v>46.50881049747889</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>65.28083049063137</v>
+        <v>53.56304082655937</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>20.30761018270337</v>
+        <v>22.3940558465036</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>41.87301972028721</v>
+        <v>37.21836742764886</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>50.73766765336117</v>
+        <v>42.38298656766956</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>13.14093985114319</v>
+        <v>4.540123003405551</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>43.52084663097013</v>
+        <v>30.67558647300988</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>51.2164851944111</v>
+        <v>37.34499904905942</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>18.97819997303008</v>
+        <v>9.585060813263599</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>59.69822766034118</v>
+        <v>54.75409652560023</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>76.64449091463169</v>
+        <v>66.60201354501737</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>65.66294580746491</v>
+        <v>63.03527659236278</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>78.4821775408665</v>
+        <v>69.67190179995549</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>88.79029122109701</v>
+        <v>76.03424196486303</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>27.36305129980855</v>
+        <v>17.51315350327454</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>63.19582481300232</v>
+        <v>54.57230511738975</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>77.41048960717903</v>
+        <v>64.74829267081721</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>11.86490601709357</v>
+        <v>7.345130263588327</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>26.20252518631673</v>
+        <v>23.40556669176179</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>34.22031591326973</v>
+        <v>31.30194255678413</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>8.780391303245306</v>
+        <v>1.590308068329939</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>31.1348068300309</v>
+        <v>25.47063024971275</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>37.64307126982979</v>
+        <v>28.92932567315747</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>14.46418854913085</v>
+        <v>6.622368923424759</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>50.12965952230792</v>
+        <v>45.85560621046145</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>55.69300454951939</v>
+        <v>51.14148243452496</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>47.4455788936291</v>
+        <v>48.46788132222449</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>54.80070233741365</v>
+        <v>54.5953893036401</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>56.49760126943634</v>
+        <v>52.74766273977421</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>14.157136556313</v>
+        <v>6.365247737398185</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>37.6880738008708</v>
+        <v>35.85040145267169</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>48.39762871799648</v>
+        <v>37.27756472397439</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>13.29450439283769</v>
+        <v>9.246323655592981</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>32.57853857352171</v>
+        <v>31.10523241461963</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>41.72203996671553</v>
+        <v>33.545316409435</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>8.015503663448026</v>
+        <v>4.038570700019328</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>27.12386861372344</v>
+        <v>24.21856234900429</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>39.26169844498187</v>
+        <v>31.42097766751268</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>11.37265556118392</v>
+        <v>7.49853746428078</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>44.76951199303976</v>
+        <v>40.51064995206014</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>58.26912814799863</v>
+        <v>54.54615442368731</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>42.88725981478868</v>
+        <v>43.27415597329806</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>52.68310733376859</v>
+        <v>55.26995635848559</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>62.40859869917868</v>
+        <v>61.22309629524814</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>11.66464399245963</v>
+        <v>7.010950379815725</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>47.1932671914192</v>
+        <v>46.74497810460162</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>58.19441770063067</v>
+        <v>49.85526303358843</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>13.68198384497047</v>
+        <v>10.77511390183911</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>35.82210921081305</v>
+        <v>30.08378505748035</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>46.77691568417129</v>
+        <v>38.7947132230799</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>6.246095848403155</v>
+        <v>0.6306631805279217</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>32.0592275559149</v>
+        <v>21.68027571180625</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>42.74671718716291</v>
+        <v>32.2667362322571</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>9.865565975007993</v>
+        <v>5.115139631025428</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>49.13162716798203</v>
+        <v>37.94691015095096</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>68.86840704897759</v>
+        <v>59.53073391737983</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>55.92654478257759</v>
+        <v>52.63233291826377</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>70.43894608412889</v>
+        <v>65.58484236490425</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>82.71625188563218</v>
+        <v>74.26132620623335</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>15.0563374074353</v>
+        <v>4.59851051791679</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>54.66350236140997</v>
+        <v>44.32578335782009</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>68.42486211374258</v>
+        <v>58.41616201989271</v>
       </c>
     </row>
   </sheetData>
